--- a/files/Pruebas_Excel.xlsx
+++ b/files/Pruebas_Excel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prueba" sheetId="1" state="visible" r:id="rId1"/>
@@ -11,41 +11,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
-  <si>
-    <t>BB10549</t>
-  </si>
-  <si>
-    <t>BB22C22</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>Andadera para Bebé Sencilla Rosa</t>
-  </si>
-  <si>
-    <t>10/10/2024</t>
-  </si>
-  <si>
-    <t>AWSE1234567</t>
-  </si>
-  <si>
-    <t>7503050000000</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>P012</t>
-  </si>
-  <si>
-    <t>A2A2</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -77,15 +42,83 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -302,57 +335,319 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:N2"/>
+  <dimension ref="A2:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BB10549</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BB22C22</t>
+        </is>
+      </c>
       <c r="D2" t="n">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s"/>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" t="s">
-        <v>9</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Andadera para Bebé Sencilla Rosa</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>AWSE1234567</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Andadera para Bebé Sencilla Rosa</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>7503050000000</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>P012</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>A2A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>HG16356</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>HG134C1</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>50</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Silla de PlÃ¡stico Plegable Reforzada 39*39*78cm Negra</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>ASDF12345567</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Silla de PlÃ¡stico Plegable Reforzada 39*39*78cm Negra</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>7503050000000</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>P034</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>A2A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>HG16391</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>HG39C8</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>240</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Sabanas Matrimoniales Lisas Azul</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>QWER0856734</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Sabanas Matrimoniales Lisas Azul</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>7503041930747</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>P045</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>G6A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HG16423</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HG4C6</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>90</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Parrilla ElÃ©ctrica Dos Honillas Blanca de 45*21*51 cm</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11/10/2024</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ZXCV5267095</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Parrilla ElÃ©ctrica Dos Honillas Blanca de 45*21*51 cm</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>7503041710103</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>P065</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>K9A3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>HG16433</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>HG134C1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="n">
+        <v>50</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Silla de Plástico Plegable Reforzada 39*39*78cm Negra</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>10/10/2024</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>AWEF1357863</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Silla de Plástico Plegable Reforzada 39*39*78cm Negra</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>7503050000000</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>P054</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>A2A2</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <printOptions gridLines="0" headings="0"/>
-  <pageMargins bottom="0.7519685039370079" footer="0.3" header="0.3" left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079"/>
-  <pageSetup blackAndWhite="0" copies="1" draft="0" errors="displayed" fitToHeight="1" fitToWidth="1" horizontalDpi="600" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="0" usePrinterDefaults="1" verticalDpi="600"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.7007874015748032" right="0.7007874015748032" top="0.7519685039370079" bottom="0.7519685039370079" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" useFirstPageNumber="0" pageOrder="downThenOver" usePrinterDefaults="1" blackAndWhite="0" draft="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </worksheet>
 </file>